--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_1_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_1_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.68000000000011</v>
+        <v>22.88000000000014</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001749574414400268</v>
+        <v>0.002969250382238275</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001749574414400268</v>
+        <v>0.002969250382238275</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>45.91464110596095</v>
+        <v>29.12558995404007</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[22.418557241041725, 69.41072497088018]</t>
+          <t>[8.442683135941081, 49.80849677213906]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0002846364313333627</v>
+        <v>0.006817996700800411</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002846364313333627</v>
+        <v>0.006817996700800411</v>
       </c>
       <c r="P2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0503422885875784, 2.333395144107734]</t>
+          <t>[1.1383949355350396, 2.7233425805893496]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.237220843610444e-06</v>
+        <v>1.251423347237157e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>3.237220843610444e-06</v>
+        <v>1.251423347237157e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>65.43053276662755</v>
+        <v>56.81737397420945</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.52002659559883, 79.34103893765626]</t>
+          <t>[45.58417061611381, 68.05057733230508]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.750910610416213e-12</v>
+        <v>2.897682094271659e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.750910610416213e-12</v>
+        <v>2.897682094271659e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>16.57297297297305</v>
+        <v>15.84880880880891</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.25729729729736</v>
+        <v>12.96304304304312</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.88864864864874</v>
+        <v>18.73457457457469</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.68000000000011</v>
+        <v>22.88000000000014</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007645723257063697</v>
+        <v>0.001435797550979778</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007645723257063697</v>
+        <v>0.001435797550979778</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>36.90059293105194</v>
+        <v>42.10747065432017</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[12.069827099052326, 61.73135876305155]</t>
+          <t>[12.735857552629938, 71.47908375601041]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.004472609949896844</v>
+        <v>0.005949582198544023</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004472609949896844</v>
+        <v>0.005949582198544023</v>
       </c>
       <c r="P3" t="n">
-        <v>2.182447749340657</v>
+        <v>2.044079304137503</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.553500271144502, 2.8113952275368117]</t>
+          <t>[1.3270791789938858, 2.7610794292811196]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.058210696847084e-08</v>
+        <v>7.531544425898318e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>1.058210696847084e-08</v>
+        <v>7.531544425898318e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>63.68736625910907</v>
+        <v>54.27314089426032</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.93812693262137, 76.43660558559677]</t>
+          <t>[39.02388308216193, 69.5223987063587]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.294342659250105e-13</v>
+        <v>5.738788999565259e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>4.294342659250105e-13</v>
+        <v>5.738788999565259e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>14.80216216216223</v>
+        <v>15.43655655655665</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.53189189189195</v>
+        <v>12.8256256256257</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.07243243243251</v>
+        <v>18.0474874874876</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.68000000000011</v>
+        <v>22.88000000000014</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004912802637258573</v>
+        <v>1.692863753621765e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004912802637258573</v>
+        <v>1.692863753621765e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>31.19728806340071</v>
+        <v>47.73523877690788</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[6.428272929740551, 55.96630319706086]</t>
+          <t>[28.075275961760816, 67.39520159205495]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.01472373131056726</v>
+        <v>1.324170247030132e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01472373131056726</v>
+        <v>1.324170247030132e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>2.283079345852041</v>
+        <v>2.169868799776734</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.5660792207084242, 3.000079470995658]</t>
+          <t>[1.7673424137311953, 2.5723951858222724]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.586338601761611e-08</v>
+        <v>3.708144902248023e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>7.586338601761611e-08</v>
+        <v>3.708144902248023e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>56.40456174012138</v>
+        <v>56.81463105031748</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.53291298748624, 69.27621049275652]</t>
+          <t>[46.71769237313327, 66.9115697275017]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.235123197635858e-11</v>
+        <v>8.881784197001252e-15</v>
       </c>
       <c r="W4" t="n">
-        <v>2.235123197635858e-11</v>
+        <v>8.881784197001252e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>14.43891891891899</v>
+        <v>14.97849849849859</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.85081081081087</v>
+        <v>13.5127127127128</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.02702702702711</v>
+        <v>16.44428428428438</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.68000000000011</v>
+        <v>22.88000000000014</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001544830935409358</v>
+        <v>0.001191809781018405</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001544830935409358</v>
+        <v>0.001191809781018405</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.03262065569682</v>
+        <v>40.47037597884702</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[16.532707803093643, 59.53253350829999]</t>
+          <t>[13.28984726424791, 67.65090469344612]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.000881532216242098</v>
+        <v>0.004402817195519271</v>
       </c>
       <c r="O5" t="n">
-        <v>0.000881532216242098</v>
+        <v>0.004402817195519271</v>
       </c>
       <c r="P5" t="n">
-        <v>2.836553126664658</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.19502669890458, 3.4780795544247356]</t>
+          <t>[1.9937635058818106, 3.4026058570411974]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.723754472493511e-11</v>
+        <v>8.995379996434849e-10</v>
       </c>
       <c r="S5" t="n">
-        <v>1.723754472493511e-11</v>
+        <v>8.995379996434849e-10</v>
       </c>
       <c r="T5" t="n">
-        <v>52.54149235206426</v>
+        <v>60.66140864356841</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[40.56379461920052, 64.519190084928]</t>
+          <t>[45.864693202043405, 75.45812408509343]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.169397994578048e-11</v>
+        <v>1.460569443167969e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>2.169397994578048e-11</v>
+        <v>1.460569443167969e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>12.44108108108114</v>
+        <v>13.05465465465473</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.12540540540545</v>
+        <v>10.48952952952959</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.75675675675683</v>
+        <v>15.61977977977987</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.68000000000011</v>
+        <v>22.88000000000014</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0005787338865613778</v>
+        <v>0.004422092388514876</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005787338865613778</v>
+        <v>0.004422092388514876</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>36.54121848936552</v>
+        <v>30.67493491087199</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[15.306281134465095, 57.77615584426594]</t>
+          <t>[8.92240757082233, 52.42746225092166]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001173297597051315</v>
+        <v>0.006746261408696164</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001173297597051315</v>
+        <v>0.006746261408696164</v>
       </c>
       <c r="P6" t="n">
-        <v>3.000079470995658</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.2453424971602725, 3.7548164448310444]</t>
+          <t>[2.0943951023931953, 3.9560796378538137]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.377769175472167e-10</v>
+        <v>4.818426413422117e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>3.377769175472167e-10</v>
+        <v>4.818426413422117e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>55.83282207120997</v>
+        <v>58.11403960619087</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.136159911187036, 68.5294842312329]</t>
+          <t>[45.35965897894101, 70.86842023344073]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.020095202226457e-11</v>
+        <v>7.137623825315131e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>2.020095202226457e-11</v>
+        <v>7.137623825315131e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>11.85081081081086</v>
+        <v>11.86370370370377</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.126486486486527</v>
+        <v>8.474074074074123</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.5751351351352</v>
+        <v>15.25333333333342</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.68000000000011</v>
+        <v>22.88000000000014</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.882866879743261e-06</v>
+        <v>3.663884824522956e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>1.882866879743261e-06</v>
+        <v>3.663884824522956e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>50.69570052156696</v>
+        <v>49.54763798415998</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[28.179777300339637, 73.21162374279429]</t>
+          <t>[26.708251855548838, 72.38702411277113]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.251304751723417e-05</v>
+        <v>7.253278232366434e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>4.251304751723417e-05</v>
+        <v>7.253278232366434e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.742211004935235</v>
+        <v>-2.956053147521927</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.2202110883643122, -2.264210921506157]</t>
+          <t>[-3.5472637770263122, -2.3648425180175425]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>4.172218126541338e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>4.172218126541338e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>60.08356795289333</v>
+        <v>61.07628863656355</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.85701216858142, 72.31012373720523]</t>
+          <t>[46.94132900062601, 75.2112482725011]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7.169820293029261e-13</v>
+        <v>3.346278809601699e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>7.169820293029261e-13</v>
+        <v>3.346278809601699e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>9.898378378378425</v>
+        <v>10.76436436436443</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.17297297297301</v>
+        <v>8.611491491491545</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.62378378378384</v>
+        <v>12.91723723723731</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.51000000000055</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.596162861414399e-08</v>
+        <v>2.197977608209278e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>4.596162861414399e-08</v>
+        <v>2.197977608209278e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>66.90447751887461</v>
+        <v>48.43851995883746</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[46.09618286409247, 87.71277217365676]</t>
+          <t>[23.150702177709107, 73.72633773996581]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.122614282233485e-08</v>
+        <v>0.0003617639804807116</v>
       </c>
       <c r="O8" t="n">
-        <v>6.122614282233485e-08</v>
+        <v>0.0003617639804807116</v>
       </c>
       <c r="P8" t="n">
-        <v>3.100711067507043</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.761079429281119, 3.440342705732967]</t>
+          <t>[-3.0315268449054646, -2.025210879791619]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3.563815909046752e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.563815909046752e-13</v>
       </c>
       <c r="T8" t="n">
-        <v>57.58973460265414</v>
+        <v>55.54862666724694</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.50835308364677, 70.67111612166151]</t>
+          <t>[42.796984258502974, 68.30026907599091]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.954991724062438e-11</v>
+        <v>2.651012742660441e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.954991724062438e-11</v>
+        <v>2.651012742660441e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>12.92098098098126</v>
+        <v>10.40210210210234</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.54206206206231</v>
+        <v>8.332032032032229</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.29989989990021</v>
+        <v>12.47217217217246</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.51000000000055</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001482587990923712</v>
+        <v>8.805004662726379e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001482587990923712</v>
+        <v>8.805004662726379e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>46.17314846238122</v>
+        <v>53.80966148241092</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[17.76857180612491, 74.57772511863753]</t>
+          <t>[27.05353053453014, 80.5657924302917]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.002042948614572326</v>
+        <v>0.0001992175710661126</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002042948614572326</v>
+        <v>0.0001992175710661126</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.855421551010543</v>
+        <v>-2.993789996213697</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.5724216761541587, -2.1384214258669267]</t>
+          <t>[-3.5724216761541596, -2.415158316273234]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.212057286816616e-10</v>
+        <v>1.407762795224698e-13</v>
       </c>
       <c r="S9" t="n">
-        <v>3.212057286816616e-10</v>
+        <v>1.407762795224698e-13</v>
       </c>
       <c r="T9" t="n">
-        <v>62.07014939182005</v>
+        <v>57.63289978113562</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.694066589442244, 78.44623219419785]</t>
+          <t>[42.28788658772592, 72.97791297454532]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.181262865301846e-09</v>
+        <v>1.494030454907147e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>1.181262865301846e-09</v>
+        <v>1.494030454907147e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>11.59313313313338</v>
+        <v>12.3169169169172</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.682082082082271</v>
+        <v>9.936336336336566</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5041841841845</v>
+        <v>14.69749749749784</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.51000000000055</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.442862819513781e-05</v>
+        <v>9.57815707210985e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>3.442862819513781e-05</v>
+        <v>9.57815707210985e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>40.73918487917126</v>
+        <v>49.55127281344329</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[20.266971403406416, 61.21139835493611]</t>
+          <t>[25.21324525601446, 73.88930037087212]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0002275224822325672</v>
+        <v>0.0001703060061821748</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0002275224822325672</v>
+        <v>0.0001703060061821748</v>
       </c>
       <c r="P10" t="n">
-        <v>2.773658378845042</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.207605648468503, 3.3397111092215814]</t>
+          <t>[2.408868841491273, 3.5661322013721968]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>7.844835892001356e-13</v>
+        <v>1.505462421391712e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>7.844835892001356e-13</v>
+        <v>1.505462421391712e-13</v>
       </c>
       <c r="T10" t="n">
-        <v>47.90532096638434</v>
+        <v>63.53142108197113</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[36.64815942446537, 59.162482508303306]</t>
+          <t>[49.13502097104352, 77.92782119289875]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.161648886087278e-11</v>
+        <v>1.823519113486327e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>5.161648886087278e-11</v>
+        <v>1.823519113486327e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>14.24882882882914</v>
+        <v>13.55895895895928</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.95063063063089</v>
+        <v>11.17837837837864</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.54702702702738</v>
+        <v>15.93953953953991</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.51000000000055</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>9.887411310960381e-05</v>
+        <v>5.030264001670837e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>9.887411310960381e-05</v>
+        <v>5.030264001670837e-06</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>46.39269776039733</v>
+        <v>48.44643120871829</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[19.36960998430041, 73.41578553649424]</t>
+          <t>[23.994541340345602, 72.89832107709098]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001201485927279755</v>
+        <v>0.0002402387540294537</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001201485927279755</v>
+        <v>0.0002402387540294537</v>
       </c>
       <c r="P11" t="n">
-        <v>2.547237286694427</v>
+        <v>2.371131992799503</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.9811845563178867, 3.113290017070967]</t>
+          <t>[1.8931319093704255, 2.849132076228581]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.031064122969383e-11</v>
+        <v>5.349054532644004e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>1.031064122969383e-11</v>
+        <v>5.349054532644004e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>44.84967713949271</v>
+        <v>64.77543643679314</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[30.94870913675497, 58.75064514223044]</t>
+          <t>[52.37722423385698, 77.17364863972931]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.671561731368513e-08</v>
+        <v>1.028066520802895e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>5.671561731368513e-08</v>
+        <v>1.028066520802895e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>15.16810810810843</v>
+        <v>16.09479479479517</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.86990990991018</v>
+        <v>14.12822822822856</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.46630630630668</v>
+        <v>18.06136136136178</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.51000000000055</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.581823324394495e-05</v>
+        <v>6.427239626405346e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>3.581823324394495e-05</v>
+        <v>6.427239626405346e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>39.07964753407668</v>
+        <v>49.12674119762966</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[18.956483075904202, 59.20281199224915]</t>
+          <t>[27.20322537690768, 71.05025701835164]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0003069197505420895</v>
+        <v>4.559940512183225e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0003069197505420895</v>
+        <v>4.559940512183225e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.893131909370425</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.301921279866038, 2.4843425388748113]</t>
+          <t>[1.2390265320464255, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.704162003323688e-08</v>
+        <v>2.49845932831505e-08</v>
       </c>
       <c r="S12" t="n">
-        <v>6.704162003323688e-08</v>
+        <v>2.49845932831505e-08</v>
       </c>
       <c r="T12" t="n">
-        <v>44.84120532932668</v>
+        <v>63.56828342576374</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[33.552139075008995, 56.13027158364437]</t>
+          <t>[50.58624727703989, 76.55031957448759]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.444720064749163e-10</v>
+        <v>8.01358979174438e-13</v>
       </c>
       <c r="W12" t="n">
-        <v>3.444720064749163e-10</v>
+        <v>8.01358979174438e-13</v>
       </c>
       <c r="X12" t="n">
-        <v>17.82380380380419</v>
+        <v>18.57887887887931</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.4234634634638</v>
+        <v>16.40530530530568</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.22414414414459</v>
+        <v>20.75245245245293</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.51000000000055</v>
+        <v>25.8500000000006</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.566590689452198e-09</v>
+        <v>0.001390610279246141</v>
       </c>
       <c r="I13" t="n">
-        <v>3.566590689452198e-09</v>
+        <v>0.001390610279246141</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>60.7694982145641</v>
+        <v>34.76951870147207</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[41.61747961073668, 79.92151681839152]</t>
+          <t>[12.582365563385764, 56.95667183955837]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>8.195986267445221e-08</v>
+        <v>0.002849327349497166</v>
       </c>
       <c r="O13" t="n">
-        <v>8.195986267445221e-08</v>
+        <v>0.002849327349497166</v>
       </c>
       <c r="P13" t="n">
-        <v>1.33965812855781</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.0000264903318863, 1.6792897667837332]</t>
+          <t>[0.8365001460008852, 2.496921488438735]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.151883281622304e-10</v>
+        <v>0.0002037057853825353</v>
       </c>
       <c r="S13" t="n">
-        <v>4.151883281622304e-10</v>
+        <v>0.0002037057853825353</v>
       </c>
       <c r="T13" t="n">
-        <v>63.22010427191857</v>
+        <v>61.73909555954534</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[51.98911378362667, 74.45109476021048]</t>
+          <t>[48.56368301213537, 74.91450810695531]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>8.881784197001252e-15</v>
+        <v>3.08397751780376e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>8.881784197001252e-15</v>
+        <v>3.08397751780376e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>20.07093093093136</v>
+        <v>18.99289289289333</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.69201201201241</v>
+        <v>15.57727727727764</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.44984984985031</v>
+        <v>22.40850850850903</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_1_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_1_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.88000000000014</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002969250382238275</v>
+        <v>6.026548328219583e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002969250382238275</v>
+        <v>6.026548328219583e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>29.12558995404007</v>
+        <v>41.95538239058899</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[8.442683135941081, 49.80849677213906]</t>
+          <t>[21.217100013813877, 62.6936647673641]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.006817996700800411</v>
+        <v>0.0001847350055810271</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006817996700800411</v>
+        <v>0.0001847350055810271</v>
       </c>
       <c r="P2" t="n">
-        <v>1.930868758062195</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1383949355350396, 2.7233425805893496]</t>
+          <t>[0.761026448617347, 1.8931319093704264]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.251423347237157e-05</v>
+        <v>2.307594542583224e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.251423347237157e-05</v>
+        <v>2.307594542583224e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>56.81737397420945</v>
+        <v>46.63094727613891</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.58417061611381, 68.05057733230508]</t>
+          <t>[34.85178156359997, 58.41011298867785]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.897682094271659e-13</v>
+        <v>3.76901843068822e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>2.897682094271659e-13</v>
+        <v>3.76901843068822e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>15.84880880880891</v>
+        <v>17.70830830830836</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.96304304304312</v>
+        <v>15.68578578578583</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.73457457457469</v>
+        <v>19.73083083083089</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.88000000000014</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001435797550979778</v>
+        <v>0.003424611061012439</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001435797550979778</v>
+        <v>0.003424611061012439</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>42.10747065432017</v>
+        <v>40.5459089275713</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[12.735857552629938, 71.47908375601041]</t>
+          <t>[12.998414099872093, 68.0934037552705]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.005949582198544023</v>
+        <v>0.004835000175973603</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005949582198544023</v>
+        <v>0.004835000175973603</v>
       </c>
       <c r="P3" t="n">
-        <v>2.044079304137503</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3270791789938858, 2.7610794292811196]</t>
+          <t>[0.9119738433844233, 2.622710984077967]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.531544425898318e-07</v>
+        <v>0.0001406066954920959</v>
       </c>
       <c r="S3" t="n">
-        <v>7.531544425898318e-07</v>
+        <v>0.0001406066954920959</v>
       </c>
       <c r="T3" t="n">
-        <v>54.27314089426032</v>
+        <v>62.98690035465624</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[39.02388308216193, 69.5223987063587]</t>
+          <t>[47.28215646209324, 78.69164424721924]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.738788999565259e-09</v>
+        <v>2.655373698701169e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>5.738788999565259e-09</v>
+        <v>2.655373698701169e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>15.43655655655665</v>
+        <v>16.13523523523529</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.8256256256257</v>
+        <v>13.07897897897901</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.0474874874876</v>
+        <v>19.19149149149156</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.88000000000014</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.692863753621765e-07</v>
+        <v>2.439529364162141e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.692863753621765e-07</v>
+        <v>2.439529364162141e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>47.73523877690788</v>
+        <v>45.57902266296563</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[28.075275961760816, 67.39520159205495]</t>
+          <t>[20.86300668004114, 70.29503864589013]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.324170247030132e-05</v>
+        <v>0.0005603962405367202</v>
       </c>
       <c r="O4" t="n">
-        <v>1.324170247030132e-05</v>
+        <v>0.0005603962405367202</v>
       </c>
       <c r="P4" t="n">
-        <v>2.169868799776734</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.7673424137311953, 2.5723951858222724]</t>
+          <t>[1.7799213632951183, 2.8113952275368117]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.708144902248023e-14</v>
+        <v>1.418931638852428e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>3.708144902248023e-14</v>
+        <v>1.418931638852428e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>56.81463105031748</v>
+        <v>60.20193865661633</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.71769237313327, 66.9115697275017]</t>
+          <t>[47.67869255173369, 72.72518476149898]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.881784197001252e-15</v>
+        <v>1.415978445606925e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>8.881784197001252e-15</v>
+        <v>1.415978445606925e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>14.97849849849859</v>
+        <v>14.24754754754759</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5127127127128</v>
+        <v>12.40480480480484</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.44428428428438</v>
+        <v>16.09029029029034</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.88000000000014</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001191809781018405</v>
+        <v>0.000285177546757498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001191809781018405</v>
+        <v>0.000285177546757498</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>40.47037597884702</v>
+        <v>41.79791187646538</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[13.28984726424791, 67.65090469344612]</t>
+          <t>[16.01616088554428, 67.57966286738647]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.004402817195519271</v>
+        <v>0.00209437857274053</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004402817195519271</v>
+        <v>0.00209437857274053</v>
       </c>
       <c r="P5" t="n">
-        <v>2.698184681461504</v>
+        <v>2.509500438002657</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.9937635058818106, 3.4026058570411974]</t>
+          <t>[1.9308687580621946, 3.08813211794312]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.995379996434849e-10</v>
+        <v>3.010058868824217e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>8.995379996434849e-10</v>
+        <v>3.010058868824217e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>60.66140864356841</v>
+        <v>60.96182727381594</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.864693202043405, 75.45812408509343]</t>
+          <t>[47.29415777719713, 74.62949677043476]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.460569443167969e-10</v>
+        <v>1.336974975174599e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.460569443167969e-10</v>
+        <v>1.336974975174599e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>13.05465465465473</v>
+        <v>13.48348348348353</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.48952952952959</v>
+        <v>11.41601601601605</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.61977977977987</v>
+        <v>15.550950950951</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.88000000000014</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004422092388514876</v>
+        <v>2.280169365542761e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004422092388514876</v>
+        <v>2.280169365542761e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>30.67493491087199</v>
+        <v>47.2369883467538</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[8.92240757082233, 52.42746225092166]</t>
+          <t>[27.960264633651022, 66.51371205985657]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.006746261408696164</v>
+        <v>1.139963222440699e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006746261408696164</v>
+        <v>1.139963222440699e-05</v>
       </c>
       <c r="P6" t="n">
         <v>3.025237370123504</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.0943951023931953, 3.9560796378538137]</t>
+          <t>[2.534658337130504, 3.5158164031165042]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.818426413422117e-08</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S6" t="n">
-        <v>4.818426413422117e-08</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T6" t="n">
-        <v>58.11403960619087</v>
+        <v>61.67358302005633</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.35965897894101, 70.86842023344073]</t>
+          <t>[49.98697368385165, 73.360192356261]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.137623825315131e-12</v>
+        <v>7.438494264988549e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>7.137623825315131e-12</v>
+        <v>7.438494264988549e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>11.86370370370377</v>
+        <v>11.64074074074078</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.474074074074123</v>
+        <v>9.887887887887921</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.25333333333342</v>
+        <v>13.39359359359364</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.88000000000014</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.663884824522956e-05</v>
+        <v>5.866242147600786e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>3.663884824522956e-05</v>
+        <v>5.866242147600786e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>49.54763798415998</v>
+        <v>49.42579185115594</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[26.708251855548838, 72.38702411277113]</t>
+          <t>[30.779127445448466, 68.0724562568634]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>7.253278232366434e-05</v>
+        <v>2.955799809356563e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>7.253278232366434e-05</v>
+        <v>2.955799809356563e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.956053147521927</v>
+        <v>-2.729632055371312</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.5472637770263122, -2.3648425180175425]</t>
+          <t>[-3.13215844141685, -2.327105669325773]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.172218126541338e-13</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4.172218126541338e-13</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>61.07628863656355</v>
+        <v>50.58736666123733</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.94132900062601, 75.2112482725011]</t>
+          <t>[40.42028160834124, 60.75445171413341]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.346278809601699e-11</v>
+        <v>4.864997293907436e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>3.346278809601699e-11</v>
+        <v>4.864997293907436e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>10.76436436436443</v>
+        <v>9.753053053053083</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.611491491491545</v>
+        <v>8.314814814814842</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.91723723723731</v>
+        <v>11.19129129129132</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8500000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.197977608209278e-05</v>
+        <v>4.76351155896948e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>2.197977608209278e-05</v>
+        <v>4.76351155896948e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>48.43851995883746</v>
+        <v>40.74280411579237</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[23.150702177709107, 73.72633773996581]</t>
+          <t>[18.569711355296967, 62.91589687628777]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0003617639804807116</v>
+        <v>0.000583405236768364</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0003617639804807116</v>
+        <v>0.000583405236768364</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.528368862348542</v>
+        <v>-2.377421467581465</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.0315268449054646, -2.025210879791619]</t>
+          <t>[-2.8805794501383875, -1.8742634850245419]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.563815909046752e-13</v>
+        <v>2.398303777795263e-12</v>
       </c>
       <c r="S8" t="n">
-        <v>3.563815909046752e-13</v>
+        <v>2.398303777795263e-12</v>
       </c>
       <c r="T8" t="n">
-        <v>55.54862666724694</v>
+        <v>56.76025233787334</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.796984258502974, 68.30026907599091]</t>
+          <t>[45.405931070307446, 68.11457360543923]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.651012742660441e-11</v>
+        <v>4.196643033083092e-13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.651012742660441e-11</v>
+        <v>4.196643033083092e-13</v>
       </c>
       <c r="X8" t="n">
-        <v>10.40210210210234</v>
+        <v>9.773513513513741</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.332032032032229</v>
+        <v>7.705045045045229</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.47217217217246</v>
+        <v>11.84198198198225</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.8500000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.805004662726379e-05</v>
+        <v>6.630141794250477e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>8.805004662726379e-05</v>
+        <v>6.630141794250477e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>53.80966148241092</v>
+        <v>57.50774617966498</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[27.05353053453014, 80.5657924302917]</t>
+          <t>[31.688477732045953, 83.327014627284]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0001992175710661126</v>
+        <v>4.979945284278031e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0001992175710661126</v>
+        <v>4.979945284278031e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.993789996213697</v>
+        <v>-2.691895206679543</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.5724216761541596, -2.415158316273234]</t>
+          <t>[-3.182474239672544, -2.201316173686541]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.407762795224698e-13</v>
+        <v>2.065014825802791e-14</v>
       </c>
       <c r="S9" t="n">
-        <v>1.407762795224698e-13</v>
+        <v>2.065014825802791e-14</v>
       </c>
       <c r="T9" t="n">
-        <v>57.63289978113562</v>
+        <v>67.16622340509525</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.28788658772592, 72.97791297454532]</t>
+          <t>[53.0830081867129, 81.2494386234776]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.494030454907147e-09</v>
+        <v>1.80544468264543e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.494030454907147e-09</v>
+        <v>1.80544468264543e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>12.3169169169172</v>
+        <v>11.06630630630656</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.936336336336566</v>
+        <v>9.049549549549756</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.69749749749784</v>
+        <v>13.08306306306337</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.8500000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>9.57815707210985e-05</v>
+        <v>0.0001017718259966882</v>
       </c>
       <c r="I10" t="n">
-        <v>9.57815707210985e-05</v>
+        <v>0.0001017718259966882</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>49.55127281344329</v>
+        <v>40.80531055601916</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[25.21324525601446, 73.88930037087212]</t>
+          <t>[16.94672121511997, 64.66389989691834]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0001703060061821748</v>
+        <v>0.001248223448633068</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0001703060061821748</v>
+        <v>0.001248223448633068</v>
       </c>
       <c r="P10" t="n">
-        <v>2.987500521431735</v>
+        <v>2.421447791055196</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.408868841491273, 3.5661322013721968]</t>
+          <t>[1.8679740102425795, 2.974921571867812]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.505462421391712e-13</v>
+        <v>2.341837834762828e-11</v>
       </c>
       <c r="S10" t="n">
-        <v>1.505462421391712e-13</v>
+        <v>2.341837834762828e-11</v>
       </c>
       <c r="T10" t="n">
-        <v>63.53142108197113</v>
+        <v>58.87107343672249</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.13502097104352, 77.92782119289875]</t>
+          <t>[46.44070521416765, 71.30144165927733]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.823519113486327e-11</v>
+        <v>2.23354668094089e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.823519113486327e-11</v>
+        <v>2.23354668094089e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>13.55895895895928</v>
+        <v>15.87549549549586</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.17837837837864</v>
+        <v>13.6001801801805</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.93953953953991</v>
+        <v>18.15081081081123</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.8500000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.030264001670837e-06</v>
+        <v>0.0004974900295297013</v>
       </c>
       <c r="I11" t="n">
-        <v>5.030264001670837e-06</v>
+        <v>0.0004974900295297013</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.44643120871829</v>
+        <v>35.96036635148594</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[23.994541340345602, 72.89832107709098]</t>
+          <t>[11.518387863229421, 60.40234483974247]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0002402387540294537</v>
+        <v>0.004850878105581158</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0002402387540294537</v>
+        <v>0.004850878105581158</v>
       </c>
       <c r="P11" t="n">
-        <v>2.371131992799503</v>
+        <v>2.257921446724195</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.8931319093704255, 2.849132076228581]</t>
+          <t>[1.6541318676558863, 2.861711025792504]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5.349054532644004e-13</v>
+        <v>1.668774674001838e-09</v>
       </c>
       <c r="S11" t="n">
-        <v>5.349054532644004e-13</v>
+        <v>1.668774674001838e-09</v>
       </c>
       <c r="T11" t="n">
-        <v>64.77543643679314</v>
+        <v>50.9191454346717</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[52.37722423385698, 77.17364863972931]</t>
+          <t>[38.51708277757715, 63.321208091766245]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.028066520802895e-13</v>
+        <v>1.402571392361551e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>1.028066520802895e-13</v>
+        <v>1.402571392361551e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>16.09479479479517</v>
+        <v>16.54774774774813</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.12822822822856</v>
+        <v>14.06558558558591</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.06136136136178</v>
+        <v>19.02990990991035</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.8500000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>6.427239626405346e-06</v>
+        <v>5.457841152023413e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>6.427239626405346e-06</v>
+        <v>5.457841152023413e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>49.12674119762966</v>
+        <v>53.40841164026654</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[27.20322537690768, 71.05025701835164]</t>
+          <t>[26.638965411779534, 80.17785786875355]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.559940512183225e-05</v>
+        <v>0.0002202860558424558</v>
       </c>
       <c r="O12" t="n">
-        <v>4.559940512183225e-05</v>
+        <v>0.0002202860558424558</v>
       </c>
       <c r="P12" t="n">
-        <v>1.767342413731195</v>
+        <v>2.270500396288118</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.2390265320464255, 2.295658295415965]</t>
+          <t>[1.7925003128590395, 2.7485004797171966]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.49845932831505e-08</v>
+        <v>2.042366276100438e-12</v>
       </c>
       <c r="S12" t="n">
-        <v>2.49845932831505e-08</v>
+        <v>2.042366276100438e-12</v>
       </c>
       <c r="T12" t="n">
-        <v>63.56828342576374</v>
+        <v>63.18317658283181</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[50.58624727703989, 76.55031957448759]</t>
+          <t>[49.357849671489305, 77.0085034941743]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.01358979174438e-13</v>
+        <v>6.528777518610696e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>8.01358979174438e-13</v>
+        <v>6.528777518610696e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>18.57887887887931</v>
+        <v>16.49603603603642</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.40530530530568</v>
+        <v>14.53099099099133</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.75245245245293</v>
+        <v>18.46108108108152</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.8500000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001390610279246141</v>
+        <v>0.0003333314703942714</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001390610279246141</v>
+        <v>0.0003333314703942714</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>34.76951870147207</v>
+        <v>44.75292907489994</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[12.582365563385764, 56.95667183955837]</t>
+          <t>[21.62856684231599, 67.87729130748389]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.002849327349497166</v>
+        <v>0.0003199715028041616</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002849327349497166</v>
+        <v>0.0003199715028041616</v>
       </c>
       <c r="P13" t="n">
-        <v>1.66671081721981</v>
+        <v>1.553500271144503</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.8365001460008852, 2.496921488438735]</t>
+          <t>[0.8490790955648082, 2.2579214467241977]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0002037057853825353</v>
+        <v>5.745140398905058e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0002037057853825353</v>
+        <v>5.745140398905058e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>61.73909555954534</v>
+        <v>60.34565968099072</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[48.56368301213537, 74.91450810695531]</t>
+          <t>[45.304541475058805, 75.38677788692263]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.08397751780376e-12</v>
+        <v>2.631277418174705e-10</v>
       </c>
       <c r="W13" t="n">
-        <v>3.08397751780376e-12</v>
+        <v>2.631277418174705e-10</v>
       </c>
       <c r="X13" t="n">
-        <v>18.99289289289333</v>
+        <v>19.44360360360405</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.57727727727764</v>
+        <v>16.54774774774813</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.40850850850903</v>
+        <v>22.33945945945998</v>
       </c>
     </row>
   </sheetData>
